--- a/Test/assets/ag/ag.xlsx
+++ b/Test/assets/ag/ag.xlsx
@@ -12,39 +12,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
-  <si>
-    <t>UD7Ejer101 BD demografía Añade comunidades Actualiza Navarra (Replace) Elimina Ceuta y Melilla</t>
-  </si>
-  <si>
-    <t>UD7Ejer102 BD demografia Update de 5 comunidades con superficie y población</t>
-  </si>
-  <si>
-    <t>UD7Ejer103 BD demografia Update y $set de províncias en 4 comunidades.</t>
-  </si>
-  <si>
-    <t>UD7Ejer104 BD company Inserción de 3 trabajadores con nombre, apellidos, edad, teléfono móvil y número de hijos.</t>
-  </si>
-  <si>
-    <t>UD7Ejer105 BD libros Inserta 3 libros con ISBN, título, autores (nombre de uno o varios), paginas, precio, año de edición, editorial e imagen de portada (url).</t>
-  </si>
-  <si>
-    <t>UD7Ejer106 BD gimnasio Monitores – Clases – Clientes Relaciones</t>
-  </si>
-  <si>
-    <t>UD7Ejer107 BD demografia Exportación a comunidades.json</t>
-  </si>
-  <si>
-    <t>UD7Ejer108 BD libreria Exportación a libros.json</t>
-  </si>
-  <si>
-    <t>UD7Ejer109 BD empresa Exportación a empleados.json</t>
-  </si>
-  <si>
-    <t>UD7Ejer110 BD shopping Importando libros.json en books de shopping</t>
-  </si>
-  <si>
-    <t>Penalización ℗</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+  <si>
+    <t>UD2Ejer1310 Array personas.xml</t>
+  </si>
+  <si>
+    <t>UD2Ejer1311 Coches.xml</t>
+  </si>
+  <si>
+    <t>UD2Ejer1312 coches.csv a xml</t>
+  </si>
+  <si>
+    <t/>
   </si>
   <si>
     <t>Name</t>
@@ -53,7 +32,10 @@
     <t>Group</t>
   </si>
   <si>
-    <t>10%</t>
+    <t>33%</t>
+  </si>
+  <si>
+    <t>34%</t>
   </si>
   <si>
     <t>0%</t>
@@ -62,19 +44,22 @@
     <t>Grade</t>
   </si>
   <si>
-    <t>APELLIDO11 APELLIDO12, NOMBRE1</t>
+    <t>MUÑOZ SÁNCHEZ, MARÍA</t>
   </si>
   <si>
     <t>A</t>
   </si>
   <si>
-    <t>APELLIDO21 APELLIDO22, NOMBRE2</t>
-  </si>
-  <si>
-    <t>APELLIDO31 APELLIDO32, NOMBRE3</t>
-  </si>
-  <si>
-    <t>APELLIDO41 APELLIDO42, NOMBRE4</t>
+    <t>SÁNCHEZ MARTÍNEZ, OSCAR</t>
+  </si>
+  <si>
+    <t>OLEKSANDER, VÍCTOR</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>PÉREZ CASCALES, RUBÉN</t>
   </si>
 </sst>
 </file>
@@ -220,29 +205,22 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr codeName=""/>
-  <dimension ref="A1:N6"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="39.078704833984375" customWidth="1"/>
+    <col min="1" max="1" width="28.759048461914062" customWidth="1"/>
     <col min="2" max="2" width="9.140625" customWidth="1"/>
     <col min="3" max="3" width="9.140625" customWidth="1"/>
     <col min="4" max="4" width="9.140625" customWidth="1"/>
     <col min="5" max="5" width="9.140625" customWidth="1"/>
     <col min="6" max="6" width="9.140625" customWidth="1"/>
     <col min="7" max="7" width="9.140625" customWidth="1"/>
-    <col min="8" max="8" width="9.140625" customWidth="1"/>
-    <col min="9" max="9" width="9.140625" customWidth="1"/>
-    <col min="10" max="10" width="9.140625" customWidth="1"/>
-    <col min="11" max="11" width="9.140625" customWidth="1"/>
-    <col min="12" max="12" width="9.140625" customWidth="1"/>
-    <col min="13" max="13" width="9.140625" customWidth="1"/>
-    <col min="14" max="14" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="200" customHeight="1">
+    <row r="1" ht="125" customHeight="1">
       <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
@@ -255,246 +233,120 @@
       <c r="F1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>10</v>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="M2" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="N2" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="C3" s="5">
-        <v>1</v>
+        <v>3.3</v>
       </c>
       <c r="D3" s="5">
-        <v>1</v>
+        <v>3.3</v>
       </c>
       <c r="E3" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F3" s="5">
-        <v>1</v>
-      </c>
-      <c r="G3" s="5">
-        <v>1</v>
-      </c>
-      <c r="H3" s="5">
-        <v>1</v>
-      </c>
-      <c r="I3" s="5">
-        <v>0</v>
-      </c>
-      <c r="J3" s="5">
-        <v>1</v>
-      </c>
-      <c r="K3" s="5">
-        <v>1</v>
-      </c>
-      <c r="L3" s="5">
-        <v>1</v>
-      </c>
-      <c r="M3" s="5">
-        <v>0</v>
-      </c>
-      <c r="N3" s="4">
-        <v>9</v>
+        <v>0</v>
+      </c>
+      <c r="G3" s="4">
+        <v>6.6</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="C4" s="5">
-        <v>1</v>
+        <v>3.3</v>
       </c>
       <c r="D4" s="5">
-        <v>1</v>
+        <v>3.3</v>
       </c>
       <c r="E4" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F4" s="5">
-        <v>1</v>
-      </c>
-      <c r="G4" s="5">
-        <v>1</v>
-      </c>
-      <c r="H4" s="5">
-        <v>1</v>
-      </c>
-      <c r="I4" s="5">
-        <v>1</v>
-      </c>
-      <c r="J4" s="5">
-        <v>1</v>
-      </c>
-      <c r="K4" s="5">
-        <v>1</v>
-      </c>
-      <c r="L4" s="5">
-        <v>1</v>
-      </c>
-      <c r="M4" s="5">
-        <v>0</v>
-      </c>
-      <c r="N4" s="4">
-        <v>10</v>
+        <v>0</v>
+      </c>
+      <c r="G4" s="4">
+        <v>6.6</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C5" s="5">
-        <v>1</v>
+        <v>3.3</v>
       </c>
       <c r="D5" s="5">
-        <v>1</v>
+        <v>3.3</v>
       </c>
       <c r="E5" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F5" s="5">
-        <v>1</v>
-      </c>
-      <c r="G5" s="5">
-        <v>1</v>
-      </c>
-      <c r="H5" s="5">
-        <v>0</v>
-      </c>
-      <c r="I5" s="5">
-        <v>0</v>
-      </c>
-      <c r="J5" s="5">
-        <v>1</v>
-      </c>
-      <c r="K5" s="5">
-        <v>1</v>
-      </c>
-      <c r="L5" s="5">
-        <v>1</v>
-      </c>
-      <c r="M5" s="5">
-        <v>0</v>
-      </c>
-      <c r="N5" s="4">
-        <v>8</v>
+        <v>0</v>
+      </c>
+      <c r="G5" s="4">
+        <v>6.6</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="3" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C6" s="5">
-        <v>1</v>
+        <v>3.3</v>
       </c>
       <c r="D6" s="5">
-        <v>1</v>
+        <v>3.3</v>
       </c>
       <c r="E6" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F6" s="5">
-        <v>1</v>
-      </c>
-      <c r="G6" s="5">
-        <v>1</v>
-      </c>
-      <c r="H6" s="5">
-        <v>1</v>
-      </c>
-      <c r="I6" s="5">
-        <v>1</v>
-      </c>
-      <c r="J6" s="5">
-        <v>1</v>
-      </c>
-      <c r="K6" s="5">
-        <v>1</v>
-      </c>
-      <c r="L6" s="5">
-        <v>1</v>
-      </c>
-      <c r="M6" s="5">
-        <v>0</v>
-      </c>
-      <c r="N6" s="4">
-        <v>10</v>
+        <v>0</v>
+      </c>
+      <c r="G6" s="4">
+        <v>6.6</v>
       </c>
     </row>
   </sheetData>
